--- a/仕様書/DB設計.xlsx
+++ b/仕様書/DB設計.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuki.m\Desktop\Island\Animal Snap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RN2WL\Documents\Animal-Snap-master\Animal-Snap-master\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA66103B-4988-4EAF-95B8-07893DD1B8D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12195" windowHeight="6135" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1 - DB設計" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>DB設計</t>
   </si>
@@ -627,11 +628,39 @@
     <t>reply</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>フォロー解除</t>
+    <rPh sb="4" eb="6">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>投稿の削除</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ユーザーの削除</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="10"/>
@@ -720,7 +749,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1029,40 +1058,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -1119,14 +1118,73 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1137,7 +1195,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1258,38 +1316,59 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2447,7 +2526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2474,19 +2553,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A2" s="2"/>
@@ -2735,11 +2814,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -2755,36 +2834,36 @@
     <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="12.75" thickBot="1">
+    <row r="2" spans="2:8" ht="12.4" thickBot="1">
       <c r="B2" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="20" t="s">
+    <row r="3" spans="2:8" ht="12.4" thickTop="1">
+      <c r="B3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="37" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="38" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="16" t="s">
@@ -2798,10 +2877,10 @@
         <v>59</v>
       </c>
       <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
+      <c r="H4" s="39"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="38" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="25" t="s">
@@ -2815,10 +2894,10 @@
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="25" t="s">
@@ -2832,12 +2911,12 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="39" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="38" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="25" t="s">
@@ -2851,419 +2930,480 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
-    </row>
-    <row r="8" spans="2:8" ht="12.75" thickBot="1">
-      <c r="B8" s="27" t="s">
+      <c r="H7" s="39"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="45" t="s">
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="39" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="29"/>
-    </row>
-    <row r="10" spans="2:8" ht="12.75" thickBot="1">
-      <c r="B10" s="30" t="s">
+    <row r="9" spans="2:8" ht="12.4" thickBot="1">
+      <c r="B9" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="57"/>
+      <c r="E9" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="12.4" thickTop="1">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+    </row>
+    <row r="11" spans="2:8" ht="12.4" thickBot="1">
+      <c r="B11" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="20" t="s">
+    <row r="12" spans="2:8" ht="12.4" thickTop="1">
+      <c r="B12" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C12" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D12" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E12" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F12" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G12" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H12" s="37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="16.899999999999999" customHeight="1">
-      <c r="B12" s="24" t="s">
+    <row r="13" spans="2:8" ht="16.899999999999999" customHeight="1">
+      <c r="B13" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C13" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25" t="s">
+      <c r="D13" s="25"/>
+      <c r="E13" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="25" t="s">
+      <c r="F13" s="16"/>
+      <c r="G13" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H12" s="26"/>
-    </row>
-    <row r="13" spans="2:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B13" s="46" t="s">
+      <c r="H13" s="39"/>
+    </row>
+    <row r="14" spans="2:8" ht="28.9" customHeight="1">
+      <c r="B14" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C14" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="28" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28" t="s">
+      <c r="F14" s="25"/>
+      <c r="G14" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="45"/>
-    </row>
-    <row r="16" spans="2:8" ht="12.75" thickBot="1">
-      <c r="B16" s="31" t="s">
+      <c r="H14" s="39"/>
+    </row>
+    <row r="15" spans="2:8" ht="12.4" thickBot="1">
+      <c r="B15" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="57"/>
+      <c r="E15" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="12.4" thickTop="1"/>
+    <row r="17" spans="1:8" ht="12.4" thickBot="1">
+      <c r="B17" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="2:8" ht="12.75" thickTop="1">
-      <c r="B17" s="34" t="s">
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:8" ht="12.4" thickTop="1">
+      <c r="B18" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C18" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D18" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E18" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F18" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G18" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="37" t="s">
+      <c r="H18" s="37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="38" t="s">
+    <row r="19" spans="1:8">
+      <c r="B19" s="38" t="s">
         <v>42</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="39"/>
-    </row>
-    <row r="19" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B19" s="38" t="s">
-        <v>35</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="25" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="39"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" customHeight="1">
+      <c r="B20" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="25" t="s">
+      <c r="F20" s="16"/>
+      <c r="G20" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H19" s="39"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="38" t="s">
+      <c r="H20" s="39"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C21" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="48" t="s">
         <v>47</v>
-      </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>58</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="39"/>
-    </row>
-    <row r="22" spans="2:8" ht="12.75" thickBot="1">
-      <c r="B22" s="40" t="s">
+      <c r="H21" s="39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="50"/>
+      <c r="B22" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="39"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="50"/>
+      <c r="B23" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C23" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="44" t="s">
+      <c r="D23" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E23" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="43" t="s">
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="52" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="16.899999999999999" customHeight="1" thickTop="1"/>
-    <row r="24" spans="2:8" ht="12.75" thickBot="1">
-      <c r="B24" s="18" t="s">
+    <row r="24" spans="1:8" ht="12.4" thickBot="1">
+      <c r="A24" s="50"/>
+      <c r="B24" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="57"/>
+      <c r="E24" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.899999999999999" customHeight="1" thickTop="1"/>
+    <row r="26" spans="1:8" ht="12.4" thickBot="1">
+      <c r="B26" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="20" t="s">
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C27" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D27" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E27" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F27" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G27" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H27" s="23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="24" t="s">
+    <row r="28" spans="1:8">
+      <c r="B28" s="24" t="s">
         <v>86</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="26"/>
-    </row>
-    <row r="27" spans="2:8" ht="24.75" thickBot="1">
-      <c r="B27" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H27" s="26"/>
-    </row>
-    <row r="28" spans="2:8" ht="24.75" thickBot="1">
-      <c r="B28" s="47" t="s">
-        <v>17</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="44"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="26"/>
+    </row>
+    <row r="29" spans="1:8" ht="24.4" thickBot="1">
+      <c r="B29" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="42"/>
+      <c r="E29" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="26"/>
+    </row>
+    <row r="30" spans="1:8" ht="24.4" thickBot="1">
+      <c r="B30" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="42"/>
+      <c r="E30" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25" t="s">
+      <c r="F30" s="25"/>
+      <c r="G30" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="H28" s="26"/>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="33" t="s">
+      <c r="H30" s="26"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C31" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D31" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E31" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="26"/>
-    </row>
-    <row r="30" spans="2:8" ht="12.75" thickBot="1">
-      <c r="B30" s="27" t="s">
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26"/>
+    </row>
+    <row r="32" spans="1:8" ht="12.4" thickBot="1">
+      <c r="B32" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C32" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D32" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E32" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="48" t="s">
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="46" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="12.75" thickBot="1">
-      <c r="B32" s="18" t="s">
+    <row r="34" spans="2:8" ht="12.4" thickBot="1">
+      <c r="B34" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="20" t="s">
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C35" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D35" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E35" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F35" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G35" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H35" s="23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="14.65" customHeight="1">
-      <c r="B34" s="24" t="s">
+    <row r="36" spans="2:8" ht="14.65" customHeight="1">
+      <c r="B36" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C36" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25" t="s">
+      <c r="D36" s="25"/>
+      <c r="E36" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F36" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="26"/>
-    </row>
-    <row r="35" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B35" s="24" t="s">
+      <c r="G36" s="25"/>
+      <c r="H36" s="26"/>
+    </row>
+    <row r="37" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B37" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C37" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25" t="s">
+      <c r="D37" s="25"/>
+      <c r="E37" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="25" t="s">
+      <c r="F37" s="16"/>
+      <c r="G37" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H35" s="26"/>
-    </row>
-    <row r="36" spans="2:8" ht="15.4" customHeight="1" thickBot="1">
-      <c r="B36" s="46" t="s">
+      <c r="H37" s="26"/>
+    </row>
+    <row r="38" spans="2:8" ht="15.4" customHeight="1" thickBot="1">
+      <c r="B38" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C38" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="44"/>
-      <c r="E36" s="28" t="s">
+      <c r="D38" s="42"/>
+      <c r="E38" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28" t="s">
+      <c r="F38" s="28"/>
+      <c r="G38" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="H36" s="45"/>
+      <c r="H38" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>

--- a/仕様書/DB設計.xlsx
+++ b/仕様書/DB設計.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RN2WL\Documents\Animal-Snap-master\Animal-Snap-master\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Animal-Snap-master\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA66103B-4988-4EAF-95B8-07893DD1B8D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1207AF-2309-417C-9443-74C978B5DC00}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12195" windowHeight="6135" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9698" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1 - DB設計" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="88">
   <si>
     <t>DB設計</t>
   </si>
@@ -628,40 +628,12 @@
     <t>reply</t>
     <phoneticPr fontId="4"/>
   </si>
-  <si>
-    <t>state</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>フォロー解除</t>
-    <rPh sb="4" eb="6">
-      <t>カイジョ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>投稿の削除</t>
-    <rPh sb="0" eb="2">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ユーザーの削除</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -728,6 +700,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -749,7 +728,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -878,13 +857,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -896,10 +890,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -911,19 +905,41 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -932,7 +948,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -941,43 +957,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thick">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -987,123 +973,31 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color indexed="10"/>
       </right>
-      <top style="thick">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thick">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1118,34 +1012,100 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color indexed="10"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thick">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1156,34 +1116,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1195,7 +1127,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1247,127 +1179,118 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2553,19 +2476,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A2" s="2"/>
@@ -2815,596 +2738,549 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:H38"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="19" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="48.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="6.140625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="62.35546875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:8" ht="16.5">
+      <c r="E1" s="33"/>
+    </row>
     <row r="2" spans="2:8" ht="12.4" thickBot="1">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="12.4" thickTop="1">
-      <c r="B3" s="34" t="s">
+    <row r="3" spans="2:8" ht="12.4" thickBot="1">
+      <c r="B3" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="53" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="25" t="s">
+      <c r="D4" s="47"/>
+      <c r="E4" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="39"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="19" t="s">
         <v>65</v>
       </c>
       <c r="F5" s="16"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="39"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="39" t="s">
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="25" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="19" t="s">
         <v>72</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="39"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="38" t="s">
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="2:8" ht="12.4" thickBot="1">
+      <c r="B8" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="39" t="s">
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="36" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="12.4" thickBot="1">
-      <c r="B9" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="56" t="s">
+    <row r="9" spans="2:8" ht="12.4" thickTop="1">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="2:8" ht="12.4" thickBot="1">
+      <c r="B10" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="12.4" thickBot="1">
+      <c r="B11" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="16.899999999999999" customHeight="1">
+      <c r="B12" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="12.4" thickTop="1">
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-    </row>
-    <row r="11" spans="2:8" ht="12.4" thickBot="1">
-      <c r="B11" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="12.4" thickTop="1">
-      <c r="B12" s="34" t="s">
+      <c r="D12" s="48"/>
+      <c r="E12" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="49"/>
+    </row>
+    <row r="13" spans="2:8" ht="28.9" customHeight="1" thickBot="1">
+      <c r="B13" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="36"/>
+    </row>
+    <row r="14" spans="2:8" ht="12.4" thickTop="1"/>
+    <row r="15" spans="2:8" ht="12.4" thickBot="1">
+      <c r="B15" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="2:8" ht="12.4" thickBot="1">
+      <c r="B16" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C16" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D16" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E16" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F16" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G16" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H16" s="53" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="16.899999999999999" customHeight="1">
-      <c r="B13" s="38" t="s">
+    <row r="17" spans="1:8">
+      <c r="B17" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1">
+      <c r="B18" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C18" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="25" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="39"/>
-    </row>
-    <row r="14" spans="2:8" ht="28.9" customHeight="1">
-      <c r="B14" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="16" t="s">
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="30"/>
+      <c r="B20" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" spans="1:8" ht="12.4" thickBot="1">
+      <c r="A21" s="30"/>
+      <c r="B21" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.899999999999999" customHeight="1" thickTop="1"/>
+    <row r="23" spans="1:8" ht="12.4" thickBot="1">
+      <c r="B23" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:8" ht="12.4" thickBot="1">
+      <c r="B24" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25" t="s">
+      <c r="D25" s="48"/>
+      <c r="E25" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="48"/>
+      <c r="H25" s="49"/>
+    </row>
+    <row r="26" spans="1:8" ht="24.4" thickBot="1">
+      <c r="B26" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="39"/>
-    </row>
-    <row r="15" spans="2:8" ht="12.4" thickBot="1">
-      <c r="B15" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="56" t="s">
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="1:8" ht="24.4" thickBot="1">
+      <c r="B27" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="12.4" thickTop="1"/>
-    <row r="17" spans="1:8" ht="12.4" thickBot="1">
-      <c r="B17" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:8" ht="12.4" thickTop="1">
-      <c r="B18" s="34" t="s">
+      <c r="D27" s="28"/>
+      <c r="E27" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="25"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="1:8" ht="12.4" thickBot="1">
+      <c r="B29" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="12.4" thickTop="1"/>
+    <row r="31" spans="1:8" ht="12.4" thickBot="1">
+      <c r="B31" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="1:8" ht="12.4" thickBot="1">
+      <c r="B32" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C32" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D32" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E32" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F32" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G32" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="37" t="s">
+      <c r="H32" s="53" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="B19" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="16" t="s">
+    <row r="33" spans="2:8" ht="14.65" customHeight="1">
+      <c r="B33" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="16" t="s">
+      <c r="D33" s="48"/>
+      <c r="E33" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="39"/>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B20" s="38" t="s">
+      <c r="G33" s="48"/>
+      <c r="H33" s="49"/>
+    </row>
+    <row r="34" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B34" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C34" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="25" t="s">
+      <c r="D34" s="19"/>
+      <c r="E34" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="16"/>
+      <c r="G34" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="39"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="B21" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="50"/>
-      <c r="B22" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="39"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="50"/>
-      <c r="B23" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="52" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="12.4" thickBot="1">
-      <c r="A24" s="50"/>
-      <c r="B24" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="56" t="s">
+      <c r="H34" s="25"/>
+    </row>
+    <row r="35" spans="2:8" ht="15.4" customHeight="1" thickBot="1">
+      <c r="B35" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="57"/>
-      <c r="E24" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16.899999999999999" customHeight="1" thickTop="1"/>
-    <row r="26" spans="1:8" ht="12.4" thickBot="1">
-      <c r="B26" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="B27" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="B28" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="26"/>
-    </row>
-    <row r="29" spans="1:8" ht="24.4" thickBot="1">
-      <c r="B29" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H29" s="26"/>
-    </row>
-    <row r="30" spans="1:8" ht="24.4" thickBot="1">
-      <c r="B30" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25" t="s">
+      <c r="D35" s="35"/>
+      <c r="E35" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="26"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="B31" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="26"/>
-    </row>
-    <row r="32" spans="1:8" ht="12.4" thickBot="1">
-      <c r="B32" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="12.4" thickBot="1">
-      <c r="B34" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="14.65" customHeight="1">
-      <c r="B36" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26"/>
-    </row>
-    <row r="37" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B37" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H37" s="26"/>
-    </row>
-    <row r="38" spans="2:8" ht="15.4" customHeight="1" thickBot="1">
-      <c r="B38" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="42"/>
-      <c r="E38" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="H38" s="43"/>
-    </row>
+      <c r="H35" s="36"/>
+    </row>
+    <row r="36" spans="2:8" ht="12.4" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/仕様書/DB設計.xlsx
+++ b/仕様書/DB設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Animal-Snap-master\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1207AF-2309-417C-9443-74C978B5DC00}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46456FFA-F695-4B74-ADD4-84F010D3CB03}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9698" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1 - DB設計" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="93">
   <si>
     <t>DB設計</t>
   </si>
@@ -220,16 +220,6 @@
   </si>
   <si>
     <t>commentID(主)</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>投稿に対するコメントID</t>
-    <rPh sb="0" eb="2">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タイ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -263,16 +253,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>投稿に対するいいねのID</t>
-    <rPh sb="0" eb="2">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>コメントをした日時</t>
     <rPh sb="7" eb="9">
       <t>ニチジ</t>
@@ -280,75 +260,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>likeID</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Post表</t>
-    <rPh sb="4" eb="5">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>User</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>表</t>
-    </r>
-    <rPh sb="4" eb="5">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>VARCHAR(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>SYSDATE</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -415,131 +326,6 @@
   </si>
   <si>
     <t>NUMBER(10)</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>VARCHAR(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>256</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>VARCHAR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Follower表</t>
-    <rPh sb="8" eb="9">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>〇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(User.userID)</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>VARCHAR(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>600</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>〇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Post.postID)</t>
-    </r>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -614,18 +400,541 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>Reply表</t>
-    <rPh sb="5" eb="6">
+    <t>reply</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>as_user</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表</t>
+    </r>
+    <rPh sb="7" eb="8">
       <t>ヒョウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>replyID</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>reply</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>as_post</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表</t>
+    </r>
+    <rPh sb="7" eb="8">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>profile</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>プロフィール</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>NUMBER(1)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>as_f</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ollower表</t>
+    </r>
+    <rPh sb="11" eb="12">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>check(state = 0 or state = 1)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>〇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>as_u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ser.userID)</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>800</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>as_r</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eply表</t>
+    </r>
+    <rPh sb="8" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>〇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>as_p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost.postID)</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(30)</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2(12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ユーザーや投稿の情報</t>
+    <rPh sb="5" eb="7">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -633,7 +942,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -707,6 +1016,29 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -728,7 +1060,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -926,14 +1258,31 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -943,50 +1292,7 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
         <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
@@ -1069,13 +1375,28 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1087,10 +1408,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1099,13 +1420,26 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thick">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1115,8 +1449,51 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1127,7 +1504,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1215,67 +1592,67 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1284,13 +1661,31 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2476,19 +2871,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A2" s="2"/>
@@ -2684,7 +3079,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>4</v>
@@ -2738,10 +3133,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -2749,88 +3144,93 @@
     <col min="1" max="1" width="6.140625" style="18" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" style="18" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="62.35546875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="53.5" style="18" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.35546875" style="18" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="18"/>
+    <col min="9" max="9" width="6.140625" style="18" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="16.5">
-      <c r="E1" s="33"/>
-    </row>
-    <row r="2" spans="2:8" ht="12.4" thickBot="1">
+    <row r="1" spans="1:8" ht="16.5">
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.899999999999999" thickBot="1">
       <c r="B2" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="12.4" thickBot="1">
-      <c r="B3" s="50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" thickTop="1" thickBot="1">
+      <c r="A3" s="29"/>
+      <c r="B3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="51" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="46" t="s">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" thickTop="1">
+      <c r="A4" s="29"/>
+      <c r="B4" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48" t="s">
+      <c r="C4" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="42"/>
+      <c r="H4" s="43"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1">
+      <c r="A5" s="29"/>
+      <c r="B5" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>59</v>
-      </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>65</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="19"/>
       <c r="H5" s="25"/>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A6" s="29"/>
       <c r="B6" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>32</v>
@@ -2838,18 +3238,19 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17.649999999999999" customHeight="1">
+      <c r="A7" s="29"/>
       <c r="B7" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>33</v>
@@ -2858,429 +3259,459 @@
       <c r="G7" s="19"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="2:8" ht="12.4" thickBot="1">
-      <c r="B8" s="34" t="s">
+    <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1">
+      <c r="A8" s="29"/>
+      <c r="B8" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.4" customHeight="1">
+      <c r="A9" s="29"/>
+      <c r="B9" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.65" customHeight="1" thickBot="1">
+      <c r="A10" s="29"/>
+      <c r="B10" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="12.4" thickTop="1">
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:8" ht="12.4" thickBot="1">
+      <c r="B12" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" thickTop="1" thickBot="1">
+      <c r="B13" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickTop="1">
+      <c r="B14" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="43"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.4" customHeight="1" thickBot="1">
+      <c r="B15" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" spans="1:8" ht="12.4" thickTop="1"/>
+    <row r="17" spans="1:8" ht="16.899999999999999" thickBot="1">
+      <c r="B17" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" ht="12.75" thickTop="1" thickBot="1">
+      <c r="B18" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="12.4" thickTop="1">
+      <c r="B19" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="42"/>
+      <c r="H19" s="43"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.4" customHeight="1">
+      <c r="B20" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.4" customHeight="1">
+      <c r="B21" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1">
+      <c r="A22" s="20"/>
+      <c r="B22" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.4" customHeight="1">
+      <c r="A23" s="20"/>
+      <c r="B23" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.4" customHeight="1" thickBot="1">
+      <c r="B24" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="12.4" thickTop="1">
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="1:8" ht="12.4" thickBot="1">
+      <c r="B26" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" ht="12.75" thickTop="1" thickBot="1">
+      <c r="B27" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.4" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B28" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="56"/>
+      <c r="E28" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="36" t="s">
+      <c r="F28" s="41"/>
+      <c r="G28" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="43"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="B29" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="19" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" ht="12.4" thickTop="1">
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" spans="2:8" ht="12.4" thickBot="1">
-      <c r="B10" s="21" t="s">
+      <c r="F29" s="19"/>
+      <c r="G29" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B30" s="37" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" ht="12.4" thickBot="1">
-      <c r="B11" s="50" t="s">
+      <c r="C30" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="B31" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="12.4" thickTop="1"/>
+    <row r="33" spans="2:8" ht="12.4" thickBot="1">
+      <c r="B33" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="2:8" ht="12.75" thickTop="1" thickBot="1">
+      <c r="B34" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C34" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D34" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E34" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F34" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="G34" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="53" t="s">
+      <c r="H34" s="51" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="16.899999999999999" customHeight="1">
-      <c r="B12" s="46" t="s">
+    <row r="35" spans="2:8" ht="15.75" customHeight="1" thickTop="1">
+      <c r="B35" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48" t="s">
+      <c r="C35" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="49"/>
-    </row>
-    <row r="13" spans="2:8" ht="28.9" customHeight="1" thickBot="1">
-      <c r="B13" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="26" t="s">
+      <c r="D35" s="42"/>
+      <c r="E35" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="41"/>
+      <c r="G35" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="36"/>
-    </row>
-    <row r="14" spans="2:8" ht="12.4" thickTop="1"/>
-    <row r="15" spans="2:8" ht="12.4" thickBot="1">
-      <c r="B15" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-    </row>
-    <row r="16" spans="2:8" ht="12.4" thickBot="1">
-      <c r="B16" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="53" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="B17" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B18" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="25"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="B19" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="30"/>
-      <c r="B20" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="25"/>
-    </row>
-    <row r="21" spans="1:8" ht="12.4" thickBot="1">
-      <c r="A21" s="30"/>
-      <c r="B21" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.899999999999999" customHeight="1" thickTop="1"/>
-    <row r="23" spans="1:8" ht="12.4" thickBot="1">
-      <c r="B23" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="1:8" ht="12.4" thickBot="1">
-      <c r="B24" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="53" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="B25" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="48"/>
-      <c r="H25" s="49"/>
-    </row>
-    <row r="26" spans="1:8" ht="24.4" thickBot="1">
-      <c r="B26" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="H26" s="25"/>
-    </row>
-    <row r="27" spans="1:8" ht="24.4" thickBot="1">
-      <c r="B27" s="42" t="s">
+      <c r="H35" s="43"/>
+    </row>
+    <row r="36" spans="2:8" ht="15.4" customHeight="1" thickBot="1">
+      <c r="B36" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="H27" s="25"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="B28" s="43" t="s">
+      <c r="C36" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="32"/>
+      <c r="E36" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="25"/>
-    </row>
-    <row r="29" spans="1:8" ht="12.4" thickBot="1">
-      <c r="B29" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="12.4" thickTop="1"/>
-    <row r="31" spans="1:8" ht="12.4" thickBot="1">
-      <c r="B31" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-    </row>
-    <row r="32" spans="1:8" ht="12.4" thickBot="1">
-      <c r="B32" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="53" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="14.65" customHeight="1">
-      <c r="B33" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="48"/>
-      <c r="H33" s="49"/>
-    </row>
-    <row r="34" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B34" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="H34" s="25"/>
-    </row>
-    <row r="35" spans="2:8" ht="15.4" customHeight="1" thickBot="1">
-      <c r="B35" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="35"/>
-      <c r="E35" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="H35" s="36"/>
-    </row>
-    <row r="36" spans="2:8" ht="12.4" thickTop="1"/>
+      <c r="H36" s="33"/>
+    </row>
+    <row r="37" spans="2:8" ht="12.4" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
